--- a/Dokumente/CCT_ProduktBacklog.xlsx
+++ b/Dokumente/CCT_ProduktBacklog.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTL_Leonding\A_Daten\SYP\CCT\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B129C8-CDDB-47F7-9CCD-062D42DB547B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8571DE67-87BE-4000-B4A5-F09F5E8AE5B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0861B9C2-EE49-47D1-94C6-9BC297F4DE20}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="ProduktBacklog" sheetId="1" r:id="rId1"/>
+    <sheet name="Stammdaten" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProduktBacklog!$A$1:$G$33</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -36,9 +48,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Produkt Backlog</t>
-  </si>
-  <si>
     <t>Entwickler</t>
   </si>
   <si>
@@ -199,6 +208,21 @@
   </si>
   <si>
     <t>möchte ich ….</t>
+  </si>
+  <si>
+    <t>ProductOwner</t>
+  </si>
+  <si>
+    <t>eine vollständige Produkt Backlog Liste</t>
+  </si>
+  <si>
+    <t>das Projekt geplant werden kann</t>
+  </si>
+  <si>
+    <t>ein Projekt- / Produktlogo</t>
+  </si>
+  <si>
+    <t>man das Produkt besser verkaufen kann</t>
   </si>
 </sst>
 </file>
@@ -253,7 +277,148 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -563,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1BFA90-F7F9-4586-A5D3-9AD9A94F3644}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,516 +745,614 @@
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
         <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G33" xr:uid="{D0D8139D-D6B0-40E7-AA22-3F0F48BDDAD1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G33">
+      <sortCondition ref="A1:A33"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="G2:G33">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="offen">
+      <formula>NOT(ISERROR(SEARCH("offen",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="in Arbeit">
+      <formula>NOT(ISERROR(SEARCH("in Arbeit",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="fertig">
+      <formula>NOT(ISERROR(SEARCH("fertig",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E33">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Muss">
+      <formula>NOT(ISERROR(SEARCH("Muss",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Kann">
+      <formula>NOT(ISERROR(SEARCH("Kann",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2CE2E377-05DC-4566-8232-5BD2165ED192}">
+          <x14:formula1>
+            <xm:f>Stammdaten!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5DCBA8F5-9B59-4A13-A18A-ADB4F672D72A}">
+          <x14:formula1>
+            <xm:f>Stammdaten!$C$1:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7BFAD5-9390-485B-BB5C-744FFC3CB7BE}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
